--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1431684.284489293</v>
+        <v>-1434165.204314752</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>253.9000765242194</v>
+        <v>280.2921687952978</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>95.79524883564596</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271158</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292082</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>49.38646790093097</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.352745183881</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545849</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579942</v>
+        <v>14.65678318579954</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.2676152010493</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524936</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830084</v>
+        <v>283.9077600712343</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.08875413105788</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115013</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310858</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358047</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271942</v>
+        <v>62.15959247879656</v>
       </c>
       <c r="I16" t="n">
-        <v>49.69762803191146</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292079</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>3.974324134330845</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>135.425379005068</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290875</v>
+        <v>155.7512320878718</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
-        <v>134.9383736358138</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411903</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2087,7 +2087,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>282.105544240224</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>270.8187860258875</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411905</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.0890643413386</v>
+        <v>207.0890643413387</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245674</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F25" t="n">
-        <v>133.9254590121763</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948567</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2849,16 +2849,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846425</v>
+        <v>90.95618068285819</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>230.7340562419016</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>111.7690391349169</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.20693826439391</v>
       </c>
       <c r="S40" t="n">
         <v>92.08430510333693</v>
@@ -3715,10 +3715,10 @@
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>188.838278108486</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3907,7 +3907,7 @@
         <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>43.53923808266073</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>135.6235431859976</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>99.70874824091598</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>119.3005938533748</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -4183,7 +4183,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1538.552971876556</v>
+        <v>1823.749336508872</v>
       </c>
       <c r="C11" t="n">
-        <v>1196.782522195868</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.782522195868</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E11" t="n">
-        <v>838.1863368573471</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>454.3924993274633</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218357</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218357</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253117</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3146.820141253117</v>
+        <v>3099.267412142732</v>
       </c>
       <c r="V11" t="n">
-        <v>2842.94932116927</v>
+        <v>2795.396592058885</v>
       </c>
       <c r="W11" t="n">
-        <v>2517.372733158879</v>
+        <v>2469.820004048494</v>
       </c>
       <c r="X11" t="n">
-        <v>2260.908009397041</v>
+        <v>2186.69660122496</v>
       </c>
       <c r="Y11" t="n">
-        <v>1897.960744680954</v>
+        <v>1823.749336508872</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>737.2628520449032</v>
+        <v>831.1355997018109</v>
       </c>
       <c r="C13" t="n">
-        <v>737.2628520449032</v>
+        <v>689.3914840336276</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3382798922912</v>
+        <v>566.4669118810156</v>
       </c>
       <c r="E13" t="n">
-        <v>493.6172535696218</v>
+        <v>445.7458855583461</v>
       </c>
       <c r="F13" t="n">
-        <v>373.9193733314352</v>
+        <v>326.0480053201594</v>
       </c>
       <c r="G13" t="n">
-        <v>233.4086039658775</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705054</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075786</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905036</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290403</v>
+        <v>1668.910032879534</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.88595034424</v>
+        <v>1441.41761193337</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.660847567003</v>
+        <v>1179.192509156133</v>
       </c>
       <c r="X13" t="n">
-        <v>930.8633639287095</v>
+        <v>1179.192509156133</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.2628520449032</v>
+        <v>985.5919972723269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.822967855899</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828184</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="E14" t="n">
         <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597797</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810644999</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.3169479329909</v>
+        <v>81.31694793299121</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573495</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489648</v>
+        <v>2550.607615350028</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.512310489648</v>
+        <v>2550.607615350028</v>
       </c>
       <c r="X14" t="n">
-        <v>2533.512310489648</v>
+        <v>2204.333924348671</v>
       </c>
       <c r="Y14" t="n">
-        <v>2514.230740660297</v>
+        <v>1841.386659632583</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>881.3352239764677</v>
+        <v>845.0315572516229</v>
       </c>
       <c r="C16" t="n">
-        <v>739.5911083082846</v>
+        <v>703.2874415834395</v>
       </c>
       <c r="D16" t="n">
-        <v>616.6665361556726</v>
+        <v>580.3628694308275</v>
       </c>
       <c r="E16" t="n">
-        <v>495.9455098330033</v>
+        <v>459.641843108158</v>
       </c>
       <c r="F16" t="n">
-        <v>376.2476295948168</v>
+        <v>339.9439628699713</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7368602292595</v>
+        <v>199.4331935044136</v>
       </c>
       <c r="H16" t="n">
-        <v>116.7117407068415</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705059</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1883.289170905035</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1621.378371290402</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1393.885950344239</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.39213343079</v>
+        <v>1393.885950344239</v>
       </c>
       <c r="X16" t="n">
-        <v>1229.39213343079</v>
+        <v>1193.088466705945</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.791621546984</v>
+        <v>999.4879548221389</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542002</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809387</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9592424104339</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8126900199868</v>
+        <v>966.2289711446367</v>
       </c>
       <c r="F17" t="n">
-        <v>293.4684854381762</v>
+        <v>629.8847665628261</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>3021.827493809751</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>2765.406306673977</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2487.27935161166</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166342</v>
+        <v>2188.455293558377</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398327</v>
+        <v>1872.957661790362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034452</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989065</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.196093406041</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,7 +5704,7 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
         <v>1253.432737201115</v>
@@ -5713,10 +5713,10 @@
         <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1544.173786276204</v>
+        <v>1829.12888146835</v>
       </c>
       <c r="C20" t="n">
-        <v>1249.85296954359</v>
+        <v>1534.808064735735</v>
       </c>
       <c r="D20" t="n">
-        <v>966.228971144636</v>
+        <v>1251.184066336782</v>
       </c>
       <c r="E20" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F20" t="n">
         <v>629.8847665628256</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5762,40 +5762,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344061</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.62080593608</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417713</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.31084228194</v>
+        <v>3033.53566620829</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219623</v>
+        <v>2755.408711145973</v>
       </c>
       <c r="X20" t="n">
-        <v>2171.629557900544</v>
+        <v>2456.58465309269</v>
       </c>
       <c r="Y20" t="n">
-        <v>1856.131926132529</v>
+        <v>2141.087021324675</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.121778987228</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671182</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625795</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604099</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791188</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764911</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760399</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581904</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053816</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865763</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.65726737195</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817299</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096707</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349356</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.750404953125</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018609</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>763.4819084917074</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1748.048026412041</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2294.826843470823</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329807</v>
+        <v>2797.79931435016</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058328</v>
+        <v>3192.573680707338</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124118</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094441</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138544</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937446</v>
+        <v>481.6929346574177</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892059</v>
+        <v>406.2179954528789</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146099</v>
+        <v>332.9466020782828</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633997</v>
+        <v>96.06173179634008</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259239</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720302</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362971</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,49 +6212,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>1045.699547878784</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1496.733761127192</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799117</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.044482857899</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6379,16 +6379,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960305</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973136</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,10 +6449,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,31 +6461,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6494,16 +6494,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6601,43 +6601,43 @@
         <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643399</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.022961130271</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572252</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,31 +6698,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386886</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285457</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164794</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
         <v>100.1542084951512</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803193</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,10 +6886,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,28 +6935,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6965,19 +6965,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7014,13 +7014,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170926</v>
+        <v>444.8926667912277</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630291</v>
+        <v>374.6279184371642</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245367</v>
+        <v>323.1827135986719</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357884</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151997</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150364</v>
+        <v>877.980392515328</v>
       </c>
       <c r="X37" t="n">
-        <v>706.0290052170191</v>
+        <v>748.6622761911541</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.236426073489</v>
+        <v>527.869697047624</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.2565860709</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464988</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307346</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960654</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.906970512758</v>
+        <v>599.6022649647792</v>
       </c>
       <c r="C40" t="n">
-        <v>628.0089511845591</v>
+        <v>430.6660820368723</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722234</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E40" t="n">
         <v>329.9792181898302</v>
@@ -7324,10 +7324,10 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429977</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,67 +7394,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.9279421464338</v>
+        <v>795.5993767202773</v>
       </c>
       <c r="C43" t="n">
-        <v>626.6631937923703</v>
+        <v>725.3346283662138</v>
       </c>
       <c r="D43" t="n">
-        <v>575.217988953878</v>
+        <v>673.8894235277214</v>
       </c>
       <c r="E43" t="n">
-        <v>525.9763299453283</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
         <v>477.7578170212613</v>
@@ -7564,7 +7564,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1883.315519722169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
         <v>1790.301070122839</v>
       </c>
       <c r="T43" t="n">
-        <v>1568.534454692365</v>
+        <v>1667.205889266208</v>
       </c>
       <c r="U43" t="n">
-        <v>1378.103022391851</v>
+        <v>1476.774456965695</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.089968759808</v>
+        <v>1320.761403333652</v>
       </c>
       <c r="W43" t="n">
-        <v>1031.344233296691</v>
+        <v>1130.015667870534</v>
       </c>
       <c r="X43" t="n">
-        <v>902.0261169725169</v>
+        <v>1000.69755154636</v>
       </c>
       <c r="Y43" t="n">
-        <v>779.9049724028301</v>
+        <v>878.5764069766736</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,10 +7631,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
@@ -7646,28 +7646,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7688,7 +7688,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.0765132702859</v>
+        <v>651.076513270286</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8117649162224</v>
+        <v>580.8117649162225</v>
       </c>
       <c r="D46" t="n">
-        <v>430.6951255038866</v>
+        <v>430.6951255038867</v>
       </c>
       <c r="E46" t="n">
-        <v>381.4534664953369</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F46" t="n">
-        <v>333.23495357127</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G46" t="n">
         <v>212.7293032143257</v>
@@ -7846,10 +7846,10 @@
         <v>1084.164238994386</v>
       </c>
       <c r="X46" t="n">
-        <v>954.8461226702124</v>
+        <v>954.8461226702125</v>
       </c>
       <c r="Y46" t="n">
-        <v>832.7249781005256</v>
+        <v>832.7249781005257</v>
       </c>
     </row>
   </sheetData>
@@ -8456,7 +8456,7 @@
         <v>184.4039433729017</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389615</v>
+        <v>191.4948909389616</v>
       </c>
       <c r="M8" t="n">
         <v>181.085632533308</v>
@@ -8532,7 +8532,7 @@
         <v>112.6562001875978</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372539</v>
+        <v>113.603122337254</v>
       </c>
       <c r="L9" t="n">
         <v>105.9629718672282</v>
@@ -8541,7 +8541,7 @@
         <v>104.1013981253603</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677754</v>
+        <v>92.30246558677757</v>
       </c>
       <c r="O9" t="n">
         <v>106.8829608359745</v>
@@ -8617,7 +8617,7 @@
         <v>116.1755252564663</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085232</v>
+        <v>119.1996074085233</v>
       </c>
       <c r="N10" t="n">
         <v>108.4284123140783</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>127.4994347185279</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>170.7178102063603</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>306.6874953089247</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>78.40458911672695</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>287.00178544739</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>167.736966642836</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579942</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104932</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>88.91087756712315</v>
+        <v>62.51878529604483</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.03961949154831</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>209.9052237175555</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>16.92435181177423</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302865</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.2290379378692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>55.6752758483978</v>
       </c>
       <c r="I16" t="n">
-        <v>19.73464579080009</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019106</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.0521183134035</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>41.67450974811493</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>25.92954262631878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>25.01703144686246</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1107118.824622722</v>
+        <v>1107118.824622721</v>
       </c>
     </row>
     <row r="6">
@@ -26320,34 +26320,34 @@
         <v>204824.6674514866</v>
       </c>
       <c r="E2" t="n">
-        <v>182385.0002262437</v>
+        <v>182385.0002262436</v>
       </c>
       <c r="F2" t="n">
-        <v>182385.0002262437</v>
+        <v>182385.0002262436</v>
       </c>
       <c r="G2" t="n">
+        <v>198632.7053116342</v>
+      </c>
+      <c r="H2" t="n">
         <v>198632.7053116343</v>
       </c>
-      <c r="H2" t="n">
-        <v>198632.7053116342</v>
-      </c>
       <c r="I2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="J2" t="n">
         <v>205260.4424660705</v>
       </c>
       <c r="K2" t="n">
+        <v>205260.4424660707</v>
+      </c>
+      <c r="L2" t="n">
         <v>205260.4424660705</v>
-      </c>
-      <c r="L2" t="n">
-        <v>205260.4424660708</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660708</v>
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755213</v>
+        <v>59764.55367552127</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743994e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487387</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983427</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>435086.1724434269</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866212</v>
+        <v>40634.10590866204</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866215</v>
+        <v>40634.10590866204</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010434</v>
+        <v>77662.26627010427</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010442</v>
+        <v>77662.26627010427</v>
       </c>
       <c r="I4" t="n">
         <v>91903.68494905921</v>
       </c>
       <c r="J4" t="n">
+        <v>91012.35309462828</v>
+      </c>
+      <c r="K4" t="n">
         <v>91012.35309462826</v>
       </c>
-      <c r="K4" t="n">
-        <v>91012.3530946282</v>
-      </c>
       <c r="L4" t="n">
-        <v>91012.35309462823</v>
+        <v>91012.35309462824</v>
       </c>
       <c r="M4" t="n">
         <v>92793.842883194</v>
       </c>
       <c r="N4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="O4" t="n">
         <v>92793.84288319403</v>
       </c>
-      <c r="O4" t="n">
-        <v>92793.842883194</v>
-      </c>
       <c r="P4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>35148.90543186632</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521485</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26497,16 +26497,16 @@
         <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-286583.8761462779</v>
+        <v>-286588.289724146</v>
       </c>
       <c r="C6" t="n">
-        <v>-286583.8761462778</v>
+        <v>-286588.289724146</v>
       </c>
       <c r="D6" t="n">
-        <v>-325174.9640993279</v>
+        <v>-325179.3218494737</v>
       </c>
       <c r="E6" t="n">
-        <v>-1024057.568210878</v>
+        <v>-1024286.322633277</v>
       </c>
       <c r="F6" t="n">
-        <v>65181.403952755</v>
+        <v>64952.64953035691</v>
       </c>
       <c r="G6" t="n">
-        <v>2871.6866214412</v>
+        <v>2805.409249896629</v>
       </c>
       <c r="H6" t="n">
-        <v>40451.79591631531</v>
+        <v>40385.51854477081</v>
       </c>
       <c r="I6" t="n">
-        <v>4798.761385335296</v>
+        <v>4798.761385335878</v>
       </c>
       <c r="J6" t="n">
-        <v>-539.2853251609195</v>
+        <v>-539.2853251608612</v>
       </c>
       <c r="K6" t="n">
-        <v>24870.1476966362</v>
+        <v>24870.14769663634</v>
       </c>
       <c r="L6" t="n">
-        <v>-12709.96159823766</v>
+        <v>-12709.96159823795</v>
       </c>
       <c r="M6" t="n">
-        <v>-172220.0977160973</v>
+        <v>-172220.0977160974</v>
       </c>
       <c r="N6" t="n">
-        <v>29948.00227662687</v>
+        <v>29948.00227662704</v>
       </c>
       <c r="O6" t="n">
-        <v>29948.002276627</v>
+        <v>29948.00227662692</v>
       </c>
       <c r="P6" t="n">
-        <v>29948.00227662697</v>
+        <v>29948.00227662691</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859251</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
         <v>97.68472022810496</v>
@@ -26725,7 +26725,7 @@
         <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790469</v>
+        <v>69.78465283790464</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810296</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951237</v>
+        <v>50.70958360951238</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790469</v>
+        <v>69.78465283790464</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755394</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.945667103242686e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.8204798787375</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672119</v>
+        <v>84.2286184667212</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28035,7 +28035,7 @@
         <v>84.46220888519106</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990694</v>
+        <v>7.649035050990703</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712653</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075605</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
-        <v>11.49558901075534</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.49558901075622</v>
+        <v>11.49558901075611</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F25" t="n">
-        <v>11.49558901075494</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075619</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859173</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859165</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810492</v>
+        <v>55.47778196371098</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,22 +30192,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>55.47778196371129</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30378,16 +30378,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>55.47778196371095</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="S40" t="n">
         <v>97.68472022810496</v>
@@ -30435,10 +30435,10 @@
         <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>97.68472022810496</v>
@@ -30627,49 +30627,49 @@
         <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>88.93215267004733</v>
+      </c>
+      <c r="S43" t="n">
+        <v>54.14548214544428</v>
+      </c>
+      <c r="T43" t="n">
         <v>97.68472022810496</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>45.3929145873866</v>
-      </c>
-      <c r="S43" t="n">
-        <v>97.68472022810496</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>97.68472022810496</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30855,19 +30855,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>46.72521440565319</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>46.72521440565338</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413251</v>
+        <v>0.280541317941325</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366597</v>
+        <v>2.873093772366595</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993295</v>
+        <v>10.81556915993294</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362257</v>
+        <v>23.81059368362255</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207887</v>
+        <v>35.68590767207885</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102571</v>
+        <v>44.27152403102568</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396475</v>
+        <v>49.26060069396472</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356554</v>
+        <v>50.05768871356551</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328649</v>
+        <v>47.26805598328646</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661001</v>
+        <v>40.34219219660999</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478363</v>
+        <v>30.29530624783628</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313178</v>
+        <v>17.62255356313177</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587954</v>
+        <v>6.392835282587949</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288152</v>
+        <v>1.228069619288151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530601</v>
+        <v>0.022443305435306</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>0.150102838179644</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840247</v>
+        <v>1.449677410840246</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693886</v>
+        <v>5.168014384693882</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906892</v>
+        <v>14.18142647906891</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710507</v>
+        <v>24.23831663710505</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264596</v>
+        <v>32.59140791264594</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665805</v>
+        <v>38.03263579665803</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655576</v>
+        <v>39.03924649655573</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360846996</v>
+        <v>35.71328360846994</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449712</v>
+        <v>28.6630586344971</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447527</v>
+        <v>19.16049562447526</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767728</v>
+        <v>9.319542882767722</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608737</v>
+        <v>2.788094384608736</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890037</v>
+        <v>0.6050197731890032</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345008</v>
+        <v>0.009875186722345001</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486806</v>
+        <v>0.1258411772486805</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466810997</v>
+        <v>1.118842466810996</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078504</v>
+        <v>3.784387403078502</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481716</v>
+        <v>8.896971231481711</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489216</v>
+        <v>14.62045677489215</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477202</v>
+        <v>18.70915102477201</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908181</v>
+        <v>19.72617653908179</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115492</v>
+        <v>19.25713215115491</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874987</v>
+        <v>17.78707839874986</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287678</v>
+        <v>15.21991838287677</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852361</v>
+        <v>10.5374825785236</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381582</v>
+        <v>5.658276933381578</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233823</v>
+        <v>2.193068516233822</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625441</v>
+        <v>0.5376850300625438</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564403</v>
+        <v>0.006864064213564398</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019273</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019276</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36373,10 +36373,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>526.2614209378997</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>421.5121150100798</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>614.411970709814</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>858.9893307218362</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36613,10 +36613,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165796</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629122</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120755</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861327</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>329.1988939204464</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120773</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397221</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.5312714465555</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37245,7 +37245,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564853</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
